--- a/src/attributions/attributions_ig_traj_408.xlsx
+++ b/src/attributions/attributions_ig_traj_408.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG6"/>
+  <dimension ref="A1:GG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,49 +1004,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1097893766329521</v>
+        <v>0.001548899513305893</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.122233072694815</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02996271284004452</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002816441935017176</v>
+        <v>0.02396094121400297</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1268207104498841</v>
+        <v>-0.02272663616097506</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.09003007125742603</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05614776742944229</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05691539525897468</v>
+        <v>-0.07999954240092491</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0003640851977933817</v>
+        <v>0.03103438340018402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1847336772998143</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1380732057403695</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1170992733202202</v>
+        <v>0.06934891068370555</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1082,55 +1082,55 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06984578596496929</v>
+        <v>0.08369511790570075</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.200841117134049</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2209764232941336</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1151196919543005</v>
+        <v>0.09800873694083399</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1120863096245903</v>
+        <v>0.003231029989515336</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.03658220134253494</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.03492494146158557</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.008513162658396667</v>
+        <v>0.02609494055476632</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1139,127 +1139,127 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1309395171936026</v>
+        <v>0.06870180568175148</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.1701696165276663</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.003936008033273319</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.004245235442384358</v>
+        <v>0.2200144126231199</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06370003008959994</v>
+        <v>-0.03690922928445221</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.04010401321329288</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01498286973439369</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.001930784305821184</v>
+        <v>-0.1637704155703539</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.04365553934419002</v>
+        <v>-0.01933807541253064</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.01649797911844027</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.08353454135053467</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02186216160888564</v>
+        <v>0.06974583226182393</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.2063999558804253</v>
+        <v>0.05140482668708811</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.1715810749821516</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.01134145011718758</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01237122928567071</v>
+        <v>0.07129628335861715</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.07955147276283565</v>
+        <v>-0.009641249028060631</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.09697347434600063</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.002661595197775953</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02609800502240586</v>
+        <v>-0.02390690099988712</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
@@ -1274,46 +1274,46 @@
         <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.05417510603191898</v>
+        <v>-0.04311913648939546</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.03362609361140761</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.01566619707825359</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03964092826083566</v>
+        <v>-0.03206846504589021</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.07380723624339389</v>
+        <v>-0.0104971716539913</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1064717899609877</v>
       </c>
       <c r="CX2" t="n">
         <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.003021872582710178</v>
+        <v>-0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.04738017904618362</v>
+        <v>-0.06575961694949364</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,46 +1328,46 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.01049605076375361</v>
+        <v>-0.001639218246553814</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.08373168639609582</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.03725376306421839</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.07411565756263187</v>
+        <v>0.2675489400249559</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02813113548583434</v>
+        <v>-0.04125455428084415</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0</v>
+        <v>-0.001397243052654754</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.03481463050388683</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05980124095551691</v>
+        <v>0.02082537170262342</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
@@ -1379,22 +1379,22 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.002581673924616609</v>
+        <v>-0.01851502016920347</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.196987211952285</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.047409153493644</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.006713932466670364</v>
+        <v>0.001104609329906258</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1406,28 +1406,28 @@
         <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1646206114348053</v>
+        <v>-0.04969797465318412</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.02636062477848708</v>
       </c>
       <c r="EH2" t="n">
         <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.04416580388425118</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.002323659132667381</v>
+        <v>-0.1541258202500765</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.03957909058758644</v>
+        <v>-0.03188140523959872</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.06373028621491028</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.05508539150788751</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.03028254782329733</v>
+        <v>-0.07713980365538924</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
@@ -1457,28 +1457,28 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.0884020058769892</v>
+        <v>-0.05308537344106792</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1150828327536328</v>
       </c>
       <c r="EZ2" t="n">
         <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01316098114745817</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.03037945796656748</v>
+        <v>-0.05366705933416138</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1487,25 +1487,25 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.08014874326104615</v>
+        <v>-0.02418156915991783</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>0.03566761587967677</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.03411500870297545</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.09771114694022374</v>
+        <v>-0.04895163490162153</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.07974409516261559</v>
+        <v>-0.003591962838678726</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.01690567919616947</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.02513924774048485</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.03611311666424689</v>
+        <v>0.130144216615276</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
@@ -1541,25 +1541,25 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.08672711864778548</v>
+        <v>-0.04743912029851094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.06760371779314828</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.04619666401549314</v>
+        <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2142,133 +2142,133 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7125039086456076</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.053016566451089</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>-0.1581943290775418</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1491682573246182</v>
+        <v>0.1427904382739804</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1103099428169257</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5979859360720848</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.9015543089126907</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>-0.4718360682483478</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4466559219512898</v>
+        <v>-0.04254543859931865</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04320335400457522</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.377665922260816</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.6348081383958426</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0.2514885616397666</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.06544033419625926</v>
+        <v>0.6324342109895044</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3119702593226215</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.4531390049542568</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.6317815432218571</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.1072441712089737</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4940378055762949</v>
+        <v>-0.1264695529708704</v>
       </c>
       <c r="AG4" t="n">
         <v>-0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.4652340325003655</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.2451419042541197</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.04161208041099623</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>-0.2650308947232158</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1217715036326913</v>
+        <v>-0.1398680833681676</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.1450507672817951</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
         <v>-0</v>
@@ -2277,79 +2277,79 @@
         <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.653927295962563</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>1.053169308450208</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.08317165170491611</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.164979989277253</v>
+        <v>0.9193669425269759</v>
       </c>
       <c r="AY4" t="n">
         <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.5401820445755156</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.4725697560365841</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.2548271006158248</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.1728046694755663</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1398460931596696</v>
+        <v>-0.4493315307762489</v>
       </c>
       <c r="BH4" t="n">
         <v>-0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1007035265836939</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2499594944705456</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.2214963282516744</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>1.538981610276361e-09</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.3851689598247815</v>
+        <v>0.7939192535147911</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-3.470226299865645e-10</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>-0</v>
@@ -2358,214 +2358,214 @@
         <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.5209625363258947</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.9720506756670448</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0.2324596829974324</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.5831864379622774</v>
+        <v>0.5715485631943776</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.2919779520283864</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.4090242247583039</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.577863433023191</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>-0.03049940607506749</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.06789197878966483</v>
+        <v>-0.08294730917452901</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.1569745581186618</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.2430534387149265</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.1181710398866401</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>-0.3987687167093405</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5356581417367113</v>
+        <v>-0.3749184451109073</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.2049410733449671</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
         <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4026623509451013</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.5033382776240723</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.1156436622701916</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02809481818907787</v>
+        <v>-0.1776585547696875</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.1587474184588561</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.07067249978879699</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>-0.2775108161702918</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0.3673932359913288</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.03503059001777168</v>
+        <v>-0.4764256794179367</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.1259155002051529</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.1605350225895988</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.3870566180202116</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.7191676925019305</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.2950553172102219</v>
+        <v>-0.2602850518550421</v>
       </c>
       <c r="DS4" t="n">
         <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.1933599638487437</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.1984284905817803</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.1866069031021172</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.1953200310119608</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2061608986289057</v>
+        <v>0.02002841971000885</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.1091043350444491</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.4363452949532256</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.3077700576637992</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>-0.03334792790226646</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.1295628472226869</v>
+        <v>0.2755466941761727</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.4784938251634476</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>-0</v>
@@ -2574,255 +2574,255 @@
         <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.2275139511364307</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.406536515140886</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.7728980679843386</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1932882255082529</v>
+        <v>-0.4732265983475301</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.4823586417851946</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
         <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.4188349081150766</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.5451053126216142</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>-0.01873308644924528</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.1186227830558844</v>
+        <v>-0.1269243141106094</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1111297394106428</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
         <v>-0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.3050409745273208</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.07623052150119068</v>
       </c>
       <c r="FI4" t="n">
         <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.1804542122614269</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.05192285490956491</v>
+        <v>-0.3492128840905222</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.2130784122201324</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
         <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.08762436376616455</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0.06308507956227957</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.1741892868766587</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.2122976838624773</v>
+        <v>0.04967211517186651</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.3984897523235479</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.1260026363543553</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>0.1098955230905514</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>-0.3060974803726251</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.1325212001970366</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-0.1535231596153223</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.2999956895832853</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01011863869687262</v>
+        <v>0.02922567667672736</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00434769711605999</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09513637941837466</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0.1333437775984857</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.2983472446077073</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02308044515310301</v>
+        <v>-0.09476433873039687</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0162771196216502</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08743751911190381</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.01415765139169671</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.4042387849271255</v>
       </c>
       <c r="U5" t="n">
         <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.004376489777338334</v>
+        <v>0.2704396399012206</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.02138551778301708</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03041270245426222</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0</v>
+        <v>0.2396154328171587</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.2630662298852095</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.00463035330513446</v>
+        <v>0.09630840292274552</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03233462159087447</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.01206737754983741</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.02482937643716574</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.1698222896052392</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
@@ -2831,79 +2831,79 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.01045116011190463</v>
+        <v>0.1877265293504848</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.003333537937544678</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.001928094683058019</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.07653687566577799</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.303597878089267</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
         <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01201626245310457</v>
+        <v>0.4650668141860396</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.004945853658364216</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05856562801189999</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>-0.1251230190227172</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>-0.07733447002433719</v>
       </c>
       <c r="BE5" t="n">
         <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.03984017821136989</v>
+        <v>-0.4011990045044374</v>
       </c>
       <c r="BH5" t="n">
         <v>-0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.006931731284903214</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01232577999128436</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0</v>
+        <v>-0.07786386605293776</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.2412920739153451</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
@@ -2912,25 +2912,25 @@
         <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>7.189631265420923e-11</v>
+        <v>-0.01185700262979161</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-1.699233624724742e-12</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.02037153294134683</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0.08859833829437741</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.3962793480107495</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2939,52 +2939,52 @@
         <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01535034835093092</v>
+        <v>0.2823180844466441</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.01212376435779921</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04413661174810403</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0.05165609877508253</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.144854481622632</v>
       </c>
       <c r="CF5" t="n">
         <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.010414946469374</v>
+        <v>-0.03599494383344132</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.003771386241189777</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.006865996415290591</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0.1030893993397749</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.01855425950960954</v>
       </c>
       <c r="CO5" t="n">
         <v>-0</v>
@@ -2993,106 +2993,106 @@
         <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.005434754280210802</v>
+        <v>-0.1313258127369252</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.00449664681486328</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.03172125194968885</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>0.0295216109112484</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1588290707282274</v>
       </c>
       <c r="CX5" t="n">
         <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01009931935466415</v>
+        <v>-0.05070812465225873</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.001086427007262746</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.009587218770644576</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0.04829819434656268</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.2053506541955019</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03457320856810252</v>
+        <v>0.02143440194988956</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.04121593812117631</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.01012187009401428</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>0.02754998640842382</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1133614586032708</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.005813961523732814</v>
+        <v>0.1360276816526114</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.004868390169684106</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02150187663304257</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0.009917565154831604</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.07415686489453699</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
@@ -3101,52 +3101,52 @@
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.02410681066761149</v>
+        <v>0.01265741882477638</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.01657698789397859</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.008733564126710364</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>-0.1106744086072455</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.04411639621603152</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02089266645715447</v>
+        <v>-0.130549679677574</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00510722963047635</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.01897924952873251</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>-0.05805311425360682</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.2411751137656378</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3155,127 +3155,127 @@
         <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.03246242931724056</v>
+        <v>-0.004854623198164007</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0.0162805962677779</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.02492914135254837</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0.01580714185109482</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.171783090874879</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01425254728189033</v>
+        <v>-0.114277154548357</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.0004181162659467233</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.01196733090657635</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0.08359175868200164</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.1116891891133698</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.02190252417909044</v>
+        <v>-0.1758866985853223</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.002349150636133785</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.005182732993947594</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>-0.01555995985646019</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.3140765391342943</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.01131052130341923</v>
+        <v>-0.2376418337882066</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0.01759389067648944</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0.03303800691536844</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0.1210690027671696</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.0143104334633451</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0.009957081929499274</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.02898614705706795</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,25 +3283,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.699435304086101</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.3610451261147435</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>-0.09060007589616936</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.5748981811234096</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.4062315627997343</v>
       </c>
       <c r="N6" t="n">
-        <v>-0</v>
+        <v>-0.1762366633744541</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3334,25 +3334,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.2618160423295304</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.06269277996474354</v>
       </c>
       <c r="W6" t="n">
-        <v>-0</v>
+        <v>0.07735903656984335</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -3361,28 +3361,28 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1610608763117511</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.01768732050002502</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0</v>
+        <v>-0.08800842784729571</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -3391,52 +3391,52 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1263016680148375</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.1651333937140339</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0</v>
+        <v>-0.03165877572570525</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.7140041669314646</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>-0.1118838192611607</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0</v>
+        <v>0.1927608691997687</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
@@ -3445,22 +3445,22 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.08697461744923929</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0.1801101210656439</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0</v>
+        <v>-0.3029425734668854</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,79 +3469,79 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.121037935087654</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.1877126062927316</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0</v>
+        <v>0.1628566201576895</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.6193567822198041</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>-0.06544608248534527</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0</v>
+        <v>0.1270019430738185</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC6" t="n">
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.2393043024472435</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.1310216328933518</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0</v>
+        <v>-0.06702050541954244</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3553,43 +3553,43 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.01523992543170733</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0.1578491777885328</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0</v>
+        <v>-0.2677827427813128</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>-0.2261018634874281</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0</v>
+        <v>0.1850648480657977</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>-0.06809314875519454</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -3601,55 +3601,55 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.193087964841487</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.3207866581049281</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0</v>
+        <v>-0.1824644456176968</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.1726272504191407</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>0.001672715220761734</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0</v>
+        <v>-0.09910079924198051</v>
       </c>
       <c r="DS6" t="n">
         <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,19 +3658,19 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.04486006621732139</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>0.01721710614966085</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0</v>
+        <v>-0.1069229855328074</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
@@ -3679,88 +3679,88 @@
         <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.2011144897968629</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>0.1476100596960134</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0</v>
+        <v>0.1562733533546425</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.1458253263236613</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>0.2161724461595559</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0</v>
+        <v>-0.223527166797602</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.2346809624257335</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.1841727289557235</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0</v>
+        <v>-0.08435696561419975</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>0</v>
@@ -3769,25 +3769,25 @@
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.06358740936249052</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0.1006029498084236</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0</v>
+        <v>-0.04674797181023282</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
@@ -3796,22 +3796,22 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.03250147620938072</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.1640821980282927</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0</v>
+        <v>-0.2204769016036711</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>0</v>
@@ -3820,31 +3820,6859 @@
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.03945569156735537</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>0.07183025364358214</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1205455014025999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.0293219357326134</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07139990163060228</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09516470130417111</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.02434126298785027</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.09125706712293741</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.02518691294750416</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.03592368876847497</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.003508910861921487</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0314737744444091</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.01092004593598622</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.01414504288594115</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.01700167084719124</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.004547020465539927</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.04555887333074954</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.09507618318185961</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0.01507033585598056</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.06336013820193984</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.05134045474078607</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-0.05336414167599379</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-0.03311822443313163</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.03878211938345699</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.02093255855596252</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.02177272954056582</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.08107609222752928</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-0.001551666259919381</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>-0.04240239018144451</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>-0.03635655318390398</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>-0.002067137309047874</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.03824604494325563</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>-0.01493909522517783</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.0003944428198830482</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>-0.006447064053657341</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-0.02998670531272633</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>-0.001556582322989533</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.04827296241806305</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-0.02591836372624948</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.07196114133202729</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-0.02459299081247306</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.008032889291954847</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.02656539519017675</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.01140373847406297</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.02970570827665209</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>-0.01797116584368975</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>-0.01022742541145591</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>-0.02520556890067447</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>-0.006416809106988338</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.03921244530628265</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>-0.02583334608196967</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.0151870416271902</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.02251290847641118</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>-0.03200228608339666</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.001393793840534227</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0.04422411631689734</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>-0.02123652744376293</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>-0.03893304069014061</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0.03533239175719452</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>-0.03633593285103795</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0.01232616883367646</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0.001616515408625605</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>-0.0294203210347279</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>-0.01989015177765023</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4575032965051832</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1141355377289122</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.06516572227448227</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3254571122853441</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1269911060730382</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.111719709713815</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1432522080191691</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.01441091499308548</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0232203591343889</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.09546926933541929</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.02240222765328997</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.0254316228600809</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0559503226871061</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.05341163975234808</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.06968624932928638</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.3749669082746909</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-0.0619688214911717</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.1018451235691464</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.08290981704468992</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.09040800656848161</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.1655302620012254</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.1215673558389131</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.1051879182892988</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.1575431881428395</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.3235413840948836</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>-0.03786319974710478</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.01972169158557999</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>-0.1392056593063647</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.04304254675846213</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>-0.01209253358337611</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>-0.01529017726326195</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>-0.03873030910900771</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>-0.125524558652551</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-0.1284635838245358</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.08011323809593972</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>-0.018230228122517</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-0.1117153682445638</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.2037174721035351</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-0.01355134149225095</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-0.08669432064105871</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-0.06268901371507105</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-0.03700114497769385</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0.07962776080057335</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0.001354021136358817</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>-0.07875219975668311</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>-0.1011551874170711</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>-0.1203986666602435</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.08430246735245188</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>-0.0844595946508743</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.1132498122934624</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>-0.07903922864072697</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>-0.1272079327896654</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0.07525574205986336</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>-0.01832928421389359</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0.01504021929744115</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0.04833757341967782</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>-0.04137765745026736</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0.002237344089610971</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0.02714438733586997</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>-0.06011354294914603</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>-0.0422920408844491</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0.02793820874260563</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.08161234459181346</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2099071845005457</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.352332942011537</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.009724043841422553</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.03916377750957287</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.07544372364583482</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2087980341400122</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01050424047535092</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.08942855374176098</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1884726418644983</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.00346589518144922</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.100966283641528</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.01420106291796556</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.05156112186259559</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.06007690773854994</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.05060290654215222</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.01989606691637314</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.03804347798562847</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.02539564254308369</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.01949315664286415</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.04405202291319561</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.2480936653753016</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.4652032857555776</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.06758573407158833</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.1133057844966629</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.0700432087559148</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.05582483658963916</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-0.01326125643332156</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0685370398628254</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.2492391845821155</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.09659843573264766</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-0.01818452665393176</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>-0.04110819416415078</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.1208334800785279</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.3839926997811631</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.004532386897674274</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.05126361451690174</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>-0.07940576632874138</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>-0.07352030318558868</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.006330292746192681</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.01319448529034785</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>-0.05347398208926547</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>-0.1383151628498885</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>-0.02249901445257382</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.03345617065787568</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0.06106610077873007</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>-0.05890011363633817</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.01953797068622395</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.01867402800359062</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-0.1394691121326395</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0.05068416214003203</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.08807728647118476</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.04768088566836054</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.003468612008004027</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-0.003949373621259917</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.08039889445295803</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>-0.04730166013861006</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>-0.02660152129128981</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>-0.1657592643585195</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.01004901784202881</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>-0.00472270601352946</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>-0.1766296291091942</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>-0.05728011256302833</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>-0.0304736300853569</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>-0.01346360723350442</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>-0.05385025893172597</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>-0.2296908237736898</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>-0.1004385062773416</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.02199789417371481</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>-0.06061697411812243</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>-0.07214945094045827</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.005872613969672216</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.021270033317691</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>-0.02061800278584357</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>-0.01787856990597542</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>-0.06961786591451265</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0.09018254821599196</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0.1136286387338662</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>-0.1314489497742071</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>-0.06891354882294692</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>-0.08016034484258676</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0.09256363277500493</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>-0.04268779786717308</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1213758418850974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.02116236800820981</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.0763417867406477</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1017139147471221</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.019814816422374</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.06840189913981767</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.01695841969948386</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.01508644224659356</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.01018543710361442</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.03000431564623176</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.01826691587656286</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.01367124759050106</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.01534952558291651</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002975705738699503</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.03617725585796071</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.07641568789781136</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.003422285431466867</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.03898093532052318</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.05613063610515349</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-0.051898016351142</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-0.04133030219869081</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.03899241844256357</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.01959646471393874</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.01427027449661667</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.06011952668463117</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>-0.0008858465251483377</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>-0.03502547388331143</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>-0.02960278483328608</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>-0.001742358178645681</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.02522302472995046</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>-0.01551567381065592</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.003986574685343276</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>-0.01260684646994565</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-0.02488396291735782</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>-0.002406910468012811</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.0282751974333949</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-0.006006692231589453</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.01052762063913259</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.01790352360444826</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.009217128722366002</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.04077415270471702</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.006712869311974269</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.02867727344664257</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>-0.02350094692707775</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>-0.002630120527254385</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>-0.02247517351138499</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>-0.002435657435721233</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.01102660828327391</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>-0.02699338719450555</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>-0.01697492045258302</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.02281109756299572</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>-0.02795702763362764</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.003339765710704044</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.0295324888674805</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>-0.007655405173933822</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>-0.03359511655449874</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0.03091471209294849</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>-0.01329139643420139</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0.004254188433142139</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>-0.001239168740229299</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>-0.02431441078836748</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>-0.02386210290819071</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7840718863863513</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3087605856147073</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.1842979842730418</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6698952658616983</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2773987849849229</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2608588782920757</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1807892185546052</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.09175689592300762</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.004238164564424495</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.2205911688427804</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.02463438643844927</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.08432922044009764</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.1113504756575504</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.07021699372525253</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.1086701670128309</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.5601663634931588</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-0.09684533802352654</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.02593482618131744</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.1106042543613816</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-0.1143534468125972</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-0.226955108241241</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.1498650040144962</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.1545435926489858</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.2049929501042179</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.5474582118520889</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>-0.1682297391984447</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.07842879764235723</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>-0.1757967650931337</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.07363860171736518</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>-0.005919462604745874</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>-0.090034671146588</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>-0.05644909016502694</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>-0.2211346464676874</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.1766581370135107</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.1067344127508797</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>-0.0150204878938595</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-0.04318594662742366</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.2900494348832484</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.02150793664370014</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-0.1024492255192657</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-0.08414961909272245</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-0.238468101596723</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>-0.2182852136942368</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>-0.09886113860777199</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>-0.1279883912880566</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>-0.1149576150388265</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.1427942158698571</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.1644990461480261</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>-0.1475079891767168</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.05313847496540693</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0.06599564808874094</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>-0.164498762294459</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0.1202224037362993</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>-0.003305846561779257</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>-0.1074375538871136</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>0.1019226905734487</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>-0.06525561315810986</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>0.04526235499439359</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>-0.05174829576023759</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>-0.07375755779644032</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>-0.07215943217571759</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>-0.03315461689659973</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.3001352834245554</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.2330759864158551</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1941468935935122</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3285038963200798</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.100768694635358</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1142302681813377</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.06189788886737021</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1337619807333371</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1097575538144018</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1039607891291819</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.07373955147166446</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.06560313085143013</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.02519733215309479</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.02336425848998679</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.06391099538961301</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1204437846907497</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-0.0584164772715633</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.1824882644418118</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.2833001539421588</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-0.01381082932733117</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.06616550965655393</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.08048890397103652</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.04543181260750476</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.1929714457605038</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.09711558912722765</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.01568101320935265</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.1721040562889556</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>-0.052351129351748</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>-0.01812434172946197</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>-0.05649030311805735</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>-0.09364928649642207</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>-0.1937789765297198</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>-0.1646446104502493</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-0.03222357557317241</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.01609431970273796</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>-0.04633524300835803</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-0.03271940245682173</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.1187382800311627</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-0.06985675788630404</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-0.0553508749166451</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.1017292401216666</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>-0.1436985937969144</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>-0.09647664561197375</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>-0.02832025670345301</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>-0.08555750575649151</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>-0.07004723181293415</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.05104332664769662</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.03209965897580529</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0.01359758379581328</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0.056128923529115</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>-0.01320680132170605</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>-0.03913954700850909</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>-0.005037451685583487</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>-0.05933656022543336</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>-0.04874929760155352</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0.04090560677067618</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>-0.2234094480657106</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0.01574549957322864</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>-0.02004455214296163</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>0.0835989056720456</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>0.05092054789672257</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>-0.07137618586744943</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6912456131624437</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.3190689070306889</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.01782993104784696</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4780346557918105</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.3549594358189979</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.04819485399643469</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1365606417537534</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.008232522904683156</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.178138789280265</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.07694515073143114</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.02525473480787805</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1055686330180214</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.005001895393811484</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.07226419714690961</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.003394033104222704</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.3825020349983174</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.01664542788956119</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.1305786032423335</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.09723947939117816</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-0.2713178545341456</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-0.1860581385450894</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.1724295875971431</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.01924737076583324</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.2597469463047597</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.2689674776064103</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.0390240741918694</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.1525402362548918</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>-0.1421813370370799</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.01026179303856709</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>-0.03061511635413735</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>-0.02445789407353599</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>-0.3023534278241074</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>-0.1537790668710761</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-0.1031845656083169</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.0637801447054351</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>-0.04679328481271024</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-0.01678968506585008</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.1276947826809872</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.005534861015272528</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-0.08846399567667362</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-0.01258577559463047</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-0.06444982490033824</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>-0.07546493131362521</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>-0.03282344781147342</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>-0.04996858612756543</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>-0.1169356924151019</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>-0.004625409882600273</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.09161189225451855</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.02119896317010226</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.001177858688303371</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.01559858825661567</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>-0.1000225614466578</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>-0.001124647197666212</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>-0.001750648055475198</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0.007636288643414936</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>0.0222611888405785</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>-0.004643384632627586</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>-0.03575569320072596</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>0.01597470192612785</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>-0.05287963882890299</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>0.08891698312604315</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>-0.1380994357690583</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5858889400825524</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1686582755825319</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.055282338056469</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.4681569947879034</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.05558585287580247</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9268651140760222</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.03575355619305622</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.2719531314338862</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1140613658677977</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.005290778266025486</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.1123360776163352</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.09400619539558638</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.03868732670072488</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.06200653663944255</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.1580154215121932</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-0.06354587542547455</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.2078785630615551</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.5394469005342653</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>-0.2648999530602301</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.04673185515175748</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.1715203097998212</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>-0.3006534667114182</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>-0.1499023986642621</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>-0.07369095871334494</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>-0.3185339151208284</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.1850911089249483</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.3454458983756453</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.1345789197223535</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>-0.05412954624976131</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>-0.2294054279119916</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.01857978107313126</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>-0.1897090982911005</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.04447539823051633</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.09021320897060899</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>-0.04753868799601658</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>-0.2257810250950877</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0.07798283977007568</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0.1199468825197262</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0.006117811512748183</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.04253689266796506</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.1302714226736999</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0.006661290222875873</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0.1228131607021515</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>-0.07576079253218272</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>-0.2014556706452877</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0.08142543957336601</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>-0.05515876385074976</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>-0.2134672298852969</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0.009333883809337229</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>-0.04384776590013409</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>-0.06137630799030375</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0.06774084848291897</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>-0.09597549243200183</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>-0.2231264836855373</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>-0.01661578622024706</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>5.285209079665171e-05</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>-0.0883623388738686</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>0.007469348876974359</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>0.1505956162730015</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>-0.100876508110228</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>-0.1197681792807936</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0.04752422080224839</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2561011918020266</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1558299151088519</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.333453683618928</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.2003057958253216</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08943249693856385</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2380455522147754</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.08215628877891687</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04561194160341987</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.05236949063283494</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1151174070325728</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.07287731222549269</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0387061156368711</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.0599285952784851</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.01152517410098922</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.02094593922318314</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1044741247417976</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.05029935202929903</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.141863921496709</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>-0.03738643681258573</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.1165282804699251</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.09884968146658631</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>-0.04695969113768289</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>-0.1154385742544575</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>-0.001538384719906453</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>-0.1575326605876533</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.001288422259228923</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.06198454145943742</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.07267073083291564</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>-0.01445055711956436</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>-0.0767598934484717</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.02867213334505732</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0.0367334201555908</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.007446242479516398</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.05860858440613981</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>-0.01153976360211975</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.0634558773662348</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>0.1229050468702837</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.05535790430603763</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.01976685967765355</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.01004685885643984</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.07194290320957331</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>0.0005039691391483601</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0.0809078024166688</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>-0.01317904155548899</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>-0.03564761013781744</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>0.02436517570791928</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>-0.02938872570522716</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>-0.09678943166994659</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>0.04807337696319352</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>0.04536570332792395</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>-0.04400749916002104</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>0.07132202406957769</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>-0.01181206481239832</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>-0.05687163097328042</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>0.01276636964118811</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>0.03306107792015221</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>0.000105660473203924</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>0.02231411857197544</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>0.02906882691859572</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>-0.02137648411133693</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>0.03966173403857146</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>-0.009021776252053977</v>
       </c>
     </row>
   </sheetData>
